--- a/DataFiles/CH 08/Umbrella.xlsx
+++ b/DataFiles/CH 08/Umbrella.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andyconverse/Documents/Hamline Acedmics/Hamline 2024-25/Hamline Spring 25/QMBE 3730/QMBE_3730_Andy_Converse/Untitled/DataFiles/CH 08/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF568FD5-112E-C640-BFDE-DAAF9D2AAABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="14496" windowHeight="8364"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>Year</t>
   </si>
@@ -28,13 +47,112 @@
   </si>
   <si>
     <t>Sales</t>
+  </si>
+  <si>
+    <t>Quarter 1</t>
+  </si>
+  <si>
+    <t>Quarter 2</t>
+  </si>
+  <si>
+    <t>Quarter 3</t>
+  </si>
+  <si>
+    <t>Sales_revised</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Sales</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Predicted Sales_revised</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +170,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -61,7 +191,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,20 +199,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -90,13 +248,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -168,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -202,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -377,14 +545,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,10 +568,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -408,11 +606,45 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H2" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="J2">
+        <f>IF(B2=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>+IF(B2=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(B2=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>125</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>2</v>
@@ -420,11 +652,39 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H3" s="3">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="J3">
+        <f t="shared" ref="J3:J21" si="0">IF(B3=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K21" si="1">+IF(B3=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="2">IF(B3=3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>153</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>3</v>
@@ -432,11 +692,47 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>106</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Y4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>4</v>
@@ -444,11 +740,51 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>88</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.89379134480340616</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.98806593983773217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -458,11 +794,51 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H6" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>118</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0.79886296804548129</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0.976274301467421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -470,11 +846,51 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="H7" s="3">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>161</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.76114977455400901</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0.9676467747283013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -482,11 +898,51 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H8" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>133</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="4">
+        <v>11.324751652906123</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0.21666375289416051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>4</v>
@@ -494,11 +950,51 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H9" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>102</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -508,11 +1004,39 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>138</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>2</v>
@@ -520,11 +1044,45 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="H11" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>144</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2">
         <v>3</v>
@@ -532,11 +1090,71 @@
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H12" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>113</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2">
         <v>4</v>
@@ -544,11 +1162,75 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H13" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>80</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>8150</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2716.6666666666665</v>
+      </c>
+      <c r="S13" s="4">
+        <v>21.182586094866799</v>
+      </c>
+      <c r="T13" s="4">
+        <v>8.1036320948030689E-6</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>21.248000000000005</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>5.3120000000000012</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>113.15807310578549</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>7.3758228114373328E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -558,11 +1240,67 @@
       <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="H14" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>109</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="4">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2051.9999999999995</v>
+      </c>
+      <c r="R14" s="4">
+        <v>128.24999999999997</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0.51637500000000025</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>4.6943181818181842E-2</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>2</v>
@@ -570,11 +1308,63 @@
       <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="H15" s="3">
         <v>137</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>137</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="5">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>10202</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="Y15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>15</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>21.764375000000005</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2">
         <v>3</v>
@@ -582,11 +1372,39 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>125</v>
+      </c>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2">
         <v>4</v>
@@ -594,11 +1412,89 @@
       <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H17" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>109</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>5</v>
       </c>
@@ -608,11 +1504,91 @@
       <c r="C18" s="2">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>130</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>5.0645829048402389</v>
+      </c>
+      <c r="R18" s="4">
+        <v>18.757714462371261</v>
+      </c>
+      <c r="S18" s="4">
+        <v>2.5659035610699055E-12</v>
+      </c>
+      <c r="T18" s="4">
+        <v>84.263563861683807</v>
+      </c>
+      <c r="U18" s="4">
+        <v>105.73643613831619</v>
+      </c>
+      <c r="V18" s="4">
+        <v>84.263563861683807</v>
+      </c>
+      <c r="W18" s="4">
+        <v>105.73643613831619</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>6.0687499999999996</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0.16249781467062036</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>37.346656090737149</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>6.1228864709676179E-13</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>5.7110947213626426</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>6.4264052786373567</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>5.7110947213626426</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>6.4264052786373567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2">
         <v>2</v>
@@ -620,11 +1596,91 @@
       <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>165</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="4">
+        <v>29.000000000000004</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>7.1624018317879923</v>
+      </c>
+      <c r="R19" s="4">
+        <v>4.0489211134863909</v>
+      </c>
+      <c r="S19" s="4">
+        <v>9.3121064014886732E-4</v>
+      </c>
+      <c r="T19" s="4">
+        <v>13.816386401640615</v>
+      </c>
+      <c r="U19" s="4">
+        <v>44.183613598359393</v>
+      </c>
+      <c r="V19" s="4">
+        <v>13.816386401640615</v>
+      </c>
+      <c r="W19" s="4">
+        <v>44.183613598359393</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0.14562500000000006</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1.2111871993288992E-2</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>12.023327201665333</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>1.1402899242797899E-7</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0.11896694948184146</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0.17228305051815868</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>0.11896694948184146</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>0.17228305051815868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2">
         <v>3</v>
@@ -632,11 +1688,91 @@
       <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>128</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4">
+        <v>56.999999999999979</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>7.1624018317879923</v>
+      </c>
+      <c r="R20" s="4">
+        <v>7.9582242575422129</v>
+      </c>
+      <c r="S20" s="4">
+        <v>5.9348216402977417E-7</v>
+      </c>
+      <c r="T20" s="4">
+        <v>41.816386401640592</v>
+      </c>
+      <c r="U20" s="4">
+        <v>72.183613598359372</v>
+      </c>
+      <c r="V20" s="4">
+        <v>41.816386401640592</v>
+      </c>
+      <c r="W20" s="4">
+        <v>72.183613598359372</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>-1.3631250000000006</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0.1574543359127569</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>-8.6572719137775156</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>3.0597521796559057E-6</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>-1.7096796567360624</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>-1.0165703432639388</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>-1.7096796567360624</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>-1.0165703432639388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2">
         <v>4</v>
@@ -644,34 +1780,538 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3">
         <v>96</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>96</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="5">
+        <v>26.000000000000004</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>7.1624018317879914</v>
+      </c>
+      <c r="R21" s="5">
+        <v>3.6300672051946958</v>
+      </c>
+      <c r="S21" s="5">
+        <v>2.2515555386072618E-3</v>
+      </c>
+      <c r="T21" s="5">
+        <v>10.816386401640617</v>
+      </c>
+      <c r="U21" s="5">
+        <v>41.183613598359393</v>
+      </c>
+      <c r="V21" s="5">
+        <v>10.816386401640617</v>
+      </c>
+      <c r="W21" s="5">
+        <v>41.183613598359393</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>-2.0337500000000004</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0.15510764224182569</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>-13.111861998580414</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>4.6553197673283587E-8</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>-2.3751396187910618</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>-1.6923603812089392</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>-2.3751396187910618</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>-1.6923603812089392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>-0.30437499999999995</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.15368242694684622</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>-1.9805452454578518</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>7.3201042930689228E-2</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>-0.64262774107687581</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>3.3877741076875897E-2</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>-0.64262774107687581</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>3.3877741076875897E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>151.99999999999997</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1.0000000000000284</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>4.8512499999999985</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>-5.1249999999998685E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O30" s="4">
+        <v>3</v>
+      </c>
+      <c r="P30" s="4">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>-15</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>4.326249999999999</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>-0.2262499999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O31" s="4">
+        <v>4</v>
+      </c>
+      <c r="P31" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>-7</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>3</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>6.2012499999999999</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>-0.20124999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="O32" s="4">
+        <v>5</v>
+      </c>
+      <c r="P32" s="4">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>-6</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>6.6512500000000001</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>-0.15125000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O33" s="4">
+        <v>6</v>
+      </c>
+      <c r="P33" s="4">
+        <v>151.99999999999997</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>9.0000000000000284</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>5.4337499999999999</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0.36624999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O34" s="4">
+        <v>7</v>
+      </c>
+      <c r="P34" s="4">
+        <v>121</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>4.9087499999999995</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0.29125000000000068</v>
+      </c>
+    </row>
+    <row r="35" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O35" s="4">
+        <v>8</v>
+      </c>
+      <c r="P35" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>6.7837499999999995</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>1.625000000000032E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O36" s="4">
+        <v>9</v>
+      </c>
+      <c r="P36" s="4">
+        <v>124</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>7.2337500000000006</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0.16624999999999979</v>
+      </c>
+    </row>
+    <row r="37" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O37" s="4">
+        <v>10</v>
+      </c>
+      <c r="P37" s="4">
+        <v>151.99999999999997</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>-7.9999999999999716</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>6.0162499999999994</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>-1.6249999999999432E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O38" s="4">
+        <v>11</v>
+      </c>
+      <c r="P38" s="4">
+        <v>121</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>-8</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>10</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>5.49125</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0.10874999999999968</v>
+      </c>
+    </row>
+    <row r="39" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O39" s="4">
+        <v>12</v>
+      </c>
+      <c r="P39" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>-15</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>7.36625</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0.13375000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O40" s="4">
+        <v>13</v>
+      </c>
+      <c r="P40" s="4">
+        <v>124</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>-15</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>12</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>7.8162500000000001</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>-1.625000000000032E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O41" s="4">
+        <v>14</v>
+      </c>
+      <c r="P41" s="4">
+        <v>151.99999999999997</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>-14.999999999999972</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>13</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>6.598749999999999</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>-0.29874999999999918</v>
+      </c>
+    </row>
+    <row r="42" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O42" s="4">
+        <v>15</v>
+      </c>
+      <c r="P42" s="4">
+        <v>121</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>14</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>6.0737499999999995</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>-0.17374999999999918</v>
+      </c>
+    </row>
+    <row r="43" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O43" s="4">
+        <v>16</v>
+      </c>
+      <c r="P43" s="4">
+        <v>95</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>15</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>7.9487500000000004</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>5.1249999999999574E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="15:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="4">
+        <v>17</v>
+      </c>
+      <c r="P44" s="4">
+        <v>124</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>8.3987499999999997</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>1.2500000000006395E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O45" s="4">
+        <v>18</v>
+      </c>
+      <c r="P45" s="4">
+        <v>151.99999999999997</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>13.000000000000028</v>
+      </c>
+    </row>
+    <row r="46" spans="15:27" x14ac:dyDescent="0.2">
+      <c r="O46" s="4">
+        <v>19</v>
+      </c>
+      <c r="P46" s="4">
+        <v>121</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="15:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="5">
+        <v>20</v>
+      </c>
+      <c r="P47" s="5">
+        <v>95</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
